--- a/excel/sablonlar/selection.xlsx
+++ b/excel/sablonlar/selection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\socket\excel\sablonlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EC60CB-3E56-4C17-8D45-D60298AD3551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F34D061-6F60-4659-A277-69E5711E84DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -106,7 +106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCC6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,6 +147,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -424,7 +429,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/excel/sablonlar/selection.xlsx
+++ b/excel/sablonlar/selection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\socket\excel\sablonlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F34D061-6F60-4659-A277-69E5711E84DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB3019F-0C48-410E-8BA1-BD7552EE1659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Kasa No</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Açıklama</t>
+  </si>
+  <si>
+    <t>Fason</t>
   </si>
 </sst>
 </file>
@@ -111,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -134,13 +137,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +464,7 @@
     <col min="16" max="16" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,6 +512,9 @@
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
